--- a/tests/data/car.xlsx
+++ b/tests/data/car.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustv\Projects\synthasizer\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF34000-F674-4521-BDB4-183A2C197B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5983B611-543F-4880-A830-5C8380B306BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="3150" windowWidth="22550" windowHeight="15980" xr2:uid="{C8A18136-F904-45ED-827F-8429B5EA307B}"/>
+    <workbookView xWindow="13900" yWindow="2340" windowWidth="22550" windowHeight="15980" xr2:uid="{C8A18136-F904-45ED-827F-8429B5EA307B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>A4</t>
   </si>
   <si>
-    <t>X1</t>
+    <t xml:space="preserve"> 1</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -138,6 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,7 +456,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,7 +475,7 @@
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -496,7 +497,7 @@
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="7"/>
@@ -509,7 +510,7 @@
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -521,6 +522,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
